--- a/Courses/Courses/poc_projects/table_data.xlsx
+++ b/Courses/Courses/poc_projects/table_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr showObjects="none" filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FC28CA48-3D61-42A3-94B6-4D79F720C188}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D9D4DFA4-43B3-4418-91B9-2D42B982D2E8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="1125" windowWidth="14805" windowHeight="6990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,7 +518,7 @@
   <dimension ref="A1:C387"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/Courses/Courses/poc_projects/table_data.xlsx
+++ b/Courses/Courses/poc_projects/table_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr showObjects="none" filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D9D4DFA4-43B3-4418-91B9-2D42B982D2E8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1B0E160D-19DE-4C8F-B70A-AF54F5563BF0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="1125" windowWidth="14805" windowHeight="6990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>VALNUM_VAPA</t>
   </si>
@@ -38,13 +38,17 @@
   <si>
     <t>AGE</t>
   </si>
+  <si>
+    <t>N</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -85,12 +89,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,11 +117,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -515,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC1C1C6-D816-466C-9165-75C22049ED64}">
-  <dimension ref="A1:C387"/>
+  <dimension ref="A1:C388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3:C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -538,329 +554,2198 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
         <v>17</v>
       </c>
-      <c r="C2" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="C3" s="5">
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.95899999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1.024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1.0569999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1.0920000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1.127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1.1619999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1.198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1.2350000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <v>29</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4">
+        <v>30</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1.304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1.335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1.361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4">
+        <v>33</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1.381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4">
+        <v>34</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1.3919999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4">
+        <v>35</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1.3919999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4">
+        <v>36</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1.381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4">
+        <v>37</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1.359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4">
+        <v>38</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1.327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4">
+        <v>39</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1.2869999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4">
+        <v>40</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1.2390000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4">
+        <v>41</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1.1850000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4">
+        <v>42</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1.1259999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4">
+        <v>43</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1.0629999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>1</v>
+      </c>
+      <c r="B30" s="4">
+        <v>44</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4">
+        <v>45</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>1</v>
+      </c>
+      <c r="B32" s="4">
+        <v>46</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.85399999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>1</v>
+      </c>
+      <c r="B33" s="4">
+        <v>47</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.78100000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4">
+        <v>48</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.70699999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4">
+        <v>49</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4">
+        <v>50</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>1</v>
+      </c>
+      <c r="B37" s="4">
+        <v>51</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.49399999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>1</v>
+      </c>
+      <c r="B38" s="4">
+        <v>52</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0.42899999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>1</v>
+      </c>
+      <c r="B39" s="4">
+        <v>53</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>1</v>
+      </c>
+      <c r="B40" s="4">
+        <v>54</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>1</v>
+      </c>
+      <c r="B41" s="4">
+        <v>55</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>1</v>
+      </c>
+      <c r="B42" s="4">
+        <v>56</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>1</v>
+      </c>
+      <c r="B43" s="4">
+        <v>57</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>1</v>
+      </c>
+      <c r="B44" s="4">
+        <v>58</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>1</v>
+      </c>
+      <c r="B45" s="4">
+        <v>59</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>1</v>
+      </c>
+      <c r="B46" s="4">
+        <v>60</v>
+      </c>
+      <c r="C46" s="5">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>1</v>
+      </c>
+      <c r="B47" s="4">
+        <v>61</v>
+      </c>
+      <c r="C47" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>1</v>
+      </c>
+      <c r="B48" s="4">
+        <v>62</v>
+      </c>
+      <c r="C48" s="5">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>1</v>
+      </c>
+      <c r="B49" s="4">
+        <v>63</v>
+      </c>
+      <c r="C49" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>1</v>
+      </c>
+      <c r="B50" s="4">
+        <v>64</v>
+      </c>
+      <c r="C50" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>1</v>
+      </c>
+      <c r="B51" s="4">
+        <v>65</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>1</v>
+      </c>
+      <c r="B52" s="4">
+        <v>66</v>
+      </c>
+      <c r="C52" s="5">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>1</v>
+      </c>
+      <c r="B53" s="4">
+        <v>67</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>1</v>
+      </c>
+      <c r="B54" s="4">
+        <v>68</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>1</v>
+      </c>
+      <c r="B55" s="4">
+        <v>69</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>1</v>
+      </c>
+      <c r="B56" s="4">
+        <v>70</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>1</v>
+      </c>
+      <c r="B57" s="4">
+        <v>71</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>1</v>
+      </c>
+      <c r="B58" s="4">
+        <v>72</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>1</v>
+      </c>
+      <c r="B59" s="4">
+        <v>73</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>1</v>
+      </c>
+      <c r="B60" s="4">
+        <v>74</v>
+      </c>
+      <c r="C60" s="5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>1</v>
+      </c>
+      <c r="B61" s="4">
+        <v>75</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>1</v>
+      </c>
+      <c r="B62" s="4">
+        <v>76</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>1</v>
+      </c>
+      <c r="B63" s="4">
+        <v>77</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>1</v>
+      </c>
+      <c r="B64" s="4">
+        <v>78</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>1</v>
+      </c>
+      <c r="B65" s="4">
+        <v>79</v>
+      </c>
+      <c r="C65" s="5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>1</v>
+      </c>
+      <c r="B66" s="4">
+        <v>80</v>
+      </c>
+      <c r="C66" s="5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>1</v>
+      </c>
+      <c r="B67" s="4">
+        <v>81</v>
+      </c>
+      <c r="C67" s="5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>1</v>
+      </c>
+      <c r="B68" s="4">
+        <v>82</v>
+      </c>
+      <c r="C68" s="5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>1</v>
+      </c>
+      <c r="B69" s="4">
+        <v>83</v>
+      </c>
+      <c r="C69" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>1</v>
+      </c>
+      <c r="B70" s="4">
+        <v>84</v>
+      </c>
+      <c r="C70" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>1</v>
+      </c>
+      <c r="B71" s="4">
+        <v>85</v>
+      </c>
+      <c r="C71" s="5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>1</v>
+      </c>
+      <c r="B72" s="4">
+        <v>86</v>
+      </c>
+      <c r="C72" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>1</v>
+      </c>
+      <c r="B73" s="4">
+        <v>87</v>
+      </c>
+      <c r="C73" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>1</v>
+      </c>
+      <c r="B74" s="4">
+        <v>88</v>
+      </c>
+      <c r="C74" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <v>1</v>
+      </c>
+      <c r="B75" s="4">
+        <v>89</v>
+      </c>
+      <c r="C75" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <v>1</v>
+      </c>
+      <c r="B76" s="4">
+        <v>90</v>
+      </c>
+      <c r="C76" s="5">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <v>1</v>
+      </c>
+      <c r="B77" s="4">
+        <v>91</v>
+      </c>
+      <c r="C77" s="5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <v>1</v>
+      </c>
+      <c r="B78" s="4">
+        <v>92</v>
+      </c>
+      <c r="C78" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <v>1</v>
+      </c>
+      <c r="B79" s="4">
+        <v>93</v>
+      </c>
+      <c r="C79" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
+        <v>1</v>
+      </c>
+      <c r="B80" s="4">
+        <v>94</v>
+      </c>
+      <c r="C80" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>1</v>
+      </c>
+      <c r="B81" s="4">
+        <v>95</v>
+      </c>
+      <c r="C81" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>1</v>
+      </c>
+      <c r="B82" s="4">
+        <v>96</v>
+      </c>
+      <c r="C82" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>1</v>
+      </c>
+      <c r="B83" s="4">
+        <v>97</v>
+      </c>
+      <c r="C83" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <v>1</v>
+      </c>
+      <c r="B84" s="4">
+        <v>98</v>
+      </c>
+      <c r="C84" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
+        <v>1</v>
+      </c>
+      <c r="B85" s="4">
+        <v>99</v>
+      </c>
+      <c r="C85" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <v>1</v>
+      </c>
+      <c r="B86" s="4">
+        <v>100</v>
+      </c>
+      <c r="C86" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
+        <v>1</v>
+      </c>
+      <c r="B87" s="4">
+        <v>101</v>
+      </c>
+      <c r="C87" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <v>1</v>
+      </c>
+      <c r="B88" s="4">
+        <v>102</v>
+      </c>
+      <c r="C88" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>1</v>
+      </c>
+      <c r="B89" s="4">
+        <v>103</v>
+      </c>
+      <c r="C89" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>1</v>
+      </c>
+      <c r="B90" s="4">
+        <v>104</v>
+      </c>
+      <c r="C90" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>1</v>
+      </c>
+      <c r="B91" s="4">
+        <v>105</v>
+      </c>
+      <c r="C91" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>1</v>
+      </c>
+      <c r="B92" s="4">
+        <v>106</v>
+      </c>
+      <c r="C92" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <v>1</v>
+      </c>
+      <c r="B93" s="4">
+        <v>107</v>
+      </c>
+      <c r="C93" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>1</v>
+      </c>
+      <c r="B94" s="4">
+        <v>108</v>
+      </c>
+      <c r="C94" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
+        <v>1</v>
+      </c>
+      <c r="B95" s="4">
+        <v>109</v>
+      </c>
+      <c r="C95" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
+        <v>1</v>
+      </c>
+      <c r="B96" s="4">
+        <v>110</v>
+      </c>
+      <c r="C96" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
+        <v>1</v>
+      </c>
+      <c r="B97" s="4">
+        <v>111</v>
+      </c>
+      <c r="C97" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
+        <v>1</v>
+      </c>
+      <c r="B98" s="4">
+        <v>112</v>
+      </c>
+      <c r="C98" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
+        <v>1</v>
+      </c>
+      <c r="B99" s="4">
+        <v>113</v>
+      </c>
+      <c r="C99" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <v>1</v>
+      </c>
+      <c r="B100" s="4">
+        <v>114</v>
+      </c>
+      <c r="C100" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
+        <v>1</v>
+      </c>
+      <c r="B101" s="4">
+        <v>115</v>
+      </c>
+      <c r="C101" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
+        <v>2</v>
+      </c>
+      <c r="B102" s="4">
         <v>17</v>
       </c>
-      <c r="C3" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="C102" s="5">
+        <v>0.66100000000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
+        <v>2</v>
+      </c>
+      <c r="B103" s="4">
         <v>18</v>
       </c>
-      <c r="C4" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="C103" s="5">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
+        <v>2</v>
+      </c>
+      <c r="B104" s="4">
         <v>19</v>
       </c>
-      <c r="C5" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="C104" s="5">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
+        <v>2</v>
+      </c>
+      <c r="B105" s="4">
         <v>20</v>
       </c>
-      <c r="C6" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="C105" s="5">
+        <v>0.72699999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
+        <v>2</v>
+      </c>
+      <c r="B106" s="4">
         <v>21</v>
       </c>
-      <c r="C7" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="C106" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
+        <v>2</v>
+      </c>
+      <c r="B107" s="4">
         <v>22</v>
       </c>
-      <c r="C8" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="C107" s="5">
+        <v>0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="4">
+        <v>2</v>
+      </c>
+      <c r="B108" s="4">
         <v>23</v>
       </c>
-      <c r="C9" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="C108" s="5">
+        <v>0.79900000000000004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="4">
+        <v>2</v>
+      </c>
+      <c r="B109" s="4">
         <v>24</v>
       </c>
-      <c r="C10" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="C109" s="5">
+        <v>0.82399999999999995</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="4">
+        <v>2</v>
+      </c>
+      <c r="B110" s="4">
         <v>25</v>
       </c>
-      <c r="C11" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="C110" s="5">
+        <v>0.84799999999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="4">
+        <v>2</v>
+      </c>
+      <c r="B111" s="4">
         <v>26</v>
       </c>
-      <c r="C12" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="C111" s="5">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
+        <v>2</v>
+      </c>
+      <c r="B112" s="4">
         <v>27</v>
       </c>
-      <c r="C13" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="C112" s="5">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="4">
+        <v>2</v>
+      </c>
+      <c r="B113" s="4">
         <v>28</v>
       </c>
-      <c r="C14" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="C113" s="5">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="4">
+        <v>2</v>
+      </c>
+      <c r="B114" s="4">
         <v>29</v>
       </c>
-      <c r="C15" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="C114" s="5">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="4">
+        <v>2</v>
+      </c>
+      <c r="B115" s="4">
         <v>30</v>
       </c>
-      <c r="C16" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="C115" s="5">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A116" s="4">
+        <v>2</v>
+      </c>
+      <c r="B116" s="4">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="C116" s="5">
+        <v>0.96199999999999997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A117" s="4">
+        <v>2</v>
+      </c>
+      <c r="B117" s="4">
         <v>32</v>
       </c>
-      <c r="C18" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1">
+      <c r="C117" s="5">
+        <v>0.96699999999999997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="4">
+        <v>2</v>
+      </c>
+      <c r="B118" s="4">
         <v>33</v>
       </c>
-      <c r="C19" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1">
+      <c r="C118" s="5">
+        <v>0.96499999999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A119" s="4">
+        <v>2</v>
+      </c>
+      <c r="B119" s="4">
         <v>34</v>
       </c>
-      <c r="C20" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1">
+      <c r="C119" s="5">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A120" s="4">
+        <v>2</v>
+      </c>
+      <c r="B120" s="4">
         <v>35</v>
       </c>
-      <c r="C21" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1">
+      <c r="C120" s="5">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A121" s="4">
+        <v>2</v>
+      </c>
+      <c r="B121" s="4">
         <v>36</v>
       </c>
-      <c r="C22" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1">
+      <c r="C121" s="5">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A122" s="4">
+        <v>2</v>
+      </c>
+      <c r="B122" s="4">
         <v>37</v>
       </c>
-      <c r="C23" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1">
+      <c r="C122" s="5">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A123" s="4">
+        <v>2</v>
+      </c>
+      <c r="B123" s="4">
         <v>38</v>
       </c>
-      <c r="C24" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1">
+      <c r="C123" s="5">
+        <v>0.83199999999999996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="4">
+        <v>2</v>
+      </c>
+      <c r="B124" s="4">
         <v>39</v>
       </c>
-      <c r="C25" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1">
+      <c r="C124" s="5">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A125" s="4">
+        <v>2</v>
+      </c>
+      <c r="B125" s="4">
         <v>40</v>
       </c>
-      <c r="C26" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1">
+      <c r="C125" s="5">
+        <v>0.73099999999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A126" s="4">
+        <v>2</v>
+      </c>
+      <c r="B126" s="4">
         <v>41</v>
       </c>
-      <c r="C27" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1">
+      <c r="C126" s="5">
+        <v>0.67400000000000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="4">
+        <v>2</v>
+      </c>
+      <c r="B127" s="4">
         <v>42</v>
       </c>
-      <c r="C28" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1">
+      <c r="C127" s="5">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A128" s="4">
+        <v>2</v>
+      </c>
+      <c r="B128" s="4">
         <v>43</v>
       </c>
-      <c r="C29" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1">
+      <c r="C128" s="5">
+        <v>0.55500000000000005</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A129" s="4">
+        <v>2</v>
+      </c>
+      <c r="B129" s="4">
         <v>44</v>
       </c>
-      <c r="C30" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="166" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="221" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="277" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="332" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="387" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="C129" s="5">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="4">
+        <v>2</v>
+      </c>
+      <c r="B130" s="4">
+        <v>45</v>
+      </c>
+      <c r="C130" s="5">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A131" s="4">
+        <v>2</v>
+      </c>
+      <c r="B131" s="4">
+        <v>46</v>
+      </c>
+      <c r="C131" s="5">
+        <v>0.38300000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A132" s="4">
+        <v>2</v>
+      </c>
+      <c r="B132" s="4">
+        <v>47</v>
+      </c>
+      <c r="C132" s="5">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A133" s="4">
+        <v>2</v>
+      </c>
+      <c r="B133" s="4">
+        <v>48</v>
+      </c>
+      <c r="C133" s="5">
+        <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A134" s="4">
+        <v>2</v>
+      </c>
+      <c r="B134" s="4">
+        <v>49</v>
+      </c>
+      <c r="C134" s="5">
+        <v>0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A135" s="4">
+        <v>2</v>
+      </c>
+      <c r="B135" s="4">
+        <v>50</v>
+      </c>
+      <c r="C135" s="5">
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A136" s="4">
+        <v>2</v>
+      </c>
+      <c r="B136" s="4">
+        <v>51</v>
+      </c>
+      <c r="C136" s="5">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A137" s="4">
+        <v>2</v>
+      </c>
+      <c r="B137" s="4">
+        <v>52</v>
+      </c>
+      <c r="C137" s="5">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A138" s="4">
+        <v>2</v>
+      </c>
+      <c r="B138" s="4">
+        <v>53</v>
+      </c>
+      <c r="C138" s="5">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A139" s="4">
+        <v>2</v>
+      </c>
+      <c r="B139" s="4">
+        <v>54</v>
+      </c>
+      <c r="C139" s="5">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A140" s="4">
+        <v>2</v>
+      </c>
+      <c r="B140" s="4">
+        <v>55</v>
+      </c>
+      <c r="C140" s="5">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A141" s="4">
+        <v>2</v>
+      </c>
+      <c r="B141" s="4">
+        <v>56</v>
+      </c>
+      <c r="C141" s="5">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A142" s="4">
+        <v>2</v>
+      </c>
+      <c r="B142" s="4">
+        <v>57</v>
+      </c>
+      <c r="C142" s="5">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A143" s="4">
+        <v>2</v>
+      </c>
+      <c r="B143" s="4">
+        <v>58</v>
+      </c>
+      <c r="C143" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A144" s="4">
+        <v>2</v>
+      </c>
+      <c r="B144" s="4">
+        <v>59</v>
+      </c>
+      <c r="C144" s="5">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A145" s="4">
+        <v>2</v>
+      </c>
+      <c r="B145" s="4">
+        <v>60</v>
+      </c>
+      <c r="C145" s="5">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A146" s="4">
+        <v>2</v>
+      </c>
+      <c r="B146" s="4">
+        <v>61</v>
+      </c>
+      <c r="C146" s="5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A147" s="4">
+        <v>2</v>
+      </c>
+      <c r="B147" s="4">
+        <v>62</v>
+      </c>
+      <c r="C147" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A148" s="4">
+        <v>2</v>
+      </c>
+      <c r="B148" s="4">
+        <v>63</v>
+      </c>
+      <c r="C148" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A149" s="4">
+        <v>2</v>
+      </c>
+      <c r="B149" s="4">
+        <v>64</v>
+      </c>
+      <c r="C149" s="5">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A150" s="4">
+        <v>2</v>
+      </c>
+      <c r="B150" s="4">
+        <v>65</v>
+      </c>
+      <c r="C150" s="5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A151" s="4">
+        <v>2</v>
+      </c>
+      <c r="B151" s="4">
+        <v>66</v>
+      </c>
+      <c r="C151" s="5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A152" s="4">
+        <v>2</v>
+      </c>
+      <c r="B152" s="4">
+        <v>67</v>
+      </c>
+      <c r="C152" s="5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A153" s="4">
+        <v>2</v>
+      </c>
+      <c r="B153" s="4">
+        <v>68</v>
+      </c>
+      <c r="C153" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A154" s="4">
+        <v>2</v>
+      </c>
+      <c r="B154" s="4">
+        <v>69</v>
+      </c>
+      <c r="C154" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A155" s="4">
+        <v>2</v>
+      </c>
+      <c r="B155" s="4">
+        <v>70</v>
+      </c>
+      <c r="C155" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A156" s="4">
+        <v>2</v>
+      </c>
+      <c r="B156" s="4">
+        <v>71</v>
+      </c>
+      <c r="C156" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A157" s="4">
+        <v>2</v>
+      </c>
+      <c r="B157" s="4">
+        <v>72</v>
+      </c>
+      <c r="C157" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A158" s="4">
+        <v>2</v>
+      </c>
+      <c r="B158" s="4">
+        <v>73</v>
+      </c>
+      <c r="C158" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A159" s="4">
+        <v>2</v>
+      </c>
+      <c r="B159" s="4">
+        <v>74</v>
+      </c>
+      <c r="C159" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A160" s="4">
+        <v>2</v>
+      </c>
+      <c r="B160" s="4">
+        <v>75</v>
+      </c>
+      <c r="C160" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A161" s="4">
+        <v>2</v>
+      </c>
+      <c r="B161" s="4">
+        <v>76</v>
+      </c>
+      <c r="C161" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A162" s="4">
+        <v>2</v>
+      </c>
+      <c r="B162" s="4">
+        <v>77</v>
+      </c>
+      <c r="C162" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A163" s="4">
+        <v>2</v>
+      </c>
+      <c r="B163" s="4">
+        <v>78</v>
+      </c>
+      <c r="C163" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A164" s="4">
+        <v>2</v>
+      </c>
+      <c r="B164" s="4">
+        <v>79</v>
+      </c>
+      <c r="C164" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A165" s="4">
+        <v>2</v>
+      </c>
+      <c r="B165" s="4">
+        <v>80</v>
+      </c>
+      <c r="C165" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A166" s="4">
+        <v>2</v>
+      </c>
+      <c r="B166" s="4">
+        <v>81</v>
+      </c>
+      <c r="C166" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A167" s="4">
+        <v>2</v>
+      </c>
+      <c r="B167" s="4">
+        <v>82</v>
+      </c>
+      <c r="C167" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A168" s="4">
+        <v>2</v>
+      </c>
+      <c r="B168" s="4">
+        <v>83</v>
+      </c>
+      <c r="C168" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A169" s="4">
+        <v>2</v>
+      </c>
+      <c r="B169" s="4">
+        <v>84</v>
+      </c>
+      <c r="C169" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A170" s="4">
+        <v>2</v>
+      </c>
+      <c r="B170" s="4">
+        <v>85</v>
+      </c>
+      <c r="C170" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A171" s="4">
+        <v>2</v>
+      </c>
+      <c r="B171" s="4">
+        <v>86</v>
+      </c>
+      <c r="C171" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A172" s="4">
+        <v>2</v>
+      </c>
+      <c r="B172" s="4">
+        <v>87</v>
+      </c>
+      <c r="C172" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A173" s="4">
+        <v>2</v>
+      </c>
+      <c r="B173" s="4">
+        <v>88</v>
+      </c>
+      <c r="C173" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A174" s="4">
+        <v>2</v>
+      </c>
+      <c r="B174" s="4">
+        <v>89</v>
+      </c>
+      <c r="C174" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A175" s="4">
+        <v>2</v>
+      </c>
+      <c r="B175" s="4">
+        <v>90</v>
+      </c>
+      <c r="C175" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A176" s="4">
+        <v>2</v>
+      </c>
+      <c r="B176" s="4">
+        <v>91</v>
+      </c>
+      <c r="C176" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A177" s="4">
+        <v>2</v>
+      </c>
+      <c r="B177" s="4">
+        <v>92</v>
+      </c>
+      <c r="C177" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A178" s="4">
+        <v>2</v>
+      </c>
+      <c r="B178" s="4">
+        <v>93</v>
+      </c>
+      <c r="C178" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A179" s="4">
+        <v>2</v>
+      </c>
+      <c r="B179" s="4">
+        <v>94</v>
+      </c>
+      <c r="C179" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A180" s="4">
+        <v>2</v>
+      </c>
+      <c r="B180" s="4">
+        <v>95</v>
+      </c>
+      <c r="C180" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A181" s="4">
+        <v>2</v>
+      </c>
+      <c r="B181" s="4">
+        <v>96</v>
+      </c>
+      <c r="C181" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A182" s="4">
+        <v>2</v>
+      </c>
+      <c r="B182" s="4">
+        <v>97</v>
+      </c>
+      <c r="C182" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A183" s="4">
+        <v>2</v>
+      </c>
+      <c r="B183" s="4">
+        <v>98</v>
+      </c>
+      <c r="C183" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A184" s="4">
+        <v>2</v>
+      </c>
+      <c r="B184" s="4">
+        <v>99</v>
+      </c>
+      <c r="C184" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A185" s="4">
+        <v>2</v>
+      </c>
+      <c r="B185" s="4">
+        <v>100</v>
+      </c>
+      <c r="C185" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A186" s="4">
+        <v>2</v>
+      </c>
+      <c r="B186" s="4">
+        <v>101</v>
+      </c>
+      <c r="C186" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A187" s="4">
+        <v>2</v>
+      </c>
+      <c r="B187" s="4">
+        <v>102</v>
+      </c>
+      <c r="C187" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A188" s="4">
+        <v>2</v>
+      </c>
+      <c r="B188" s="4">
+        <v>103</v>
+      </c>
+      <c r="C188" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A189" s="4">
+        <v>2</v>
+      </c>
+      <c r="B189" s="4">
+        <v>104</v>
+      </c>
+      <c r="C189" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A190" s="4">
+        <v>2</v>
+      </c>
+      <c r="B190" s="4">
+        <v>105</v>
+      </c>
+      <c r="C190" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A191" s="4">
+        <v>2</v>
+      </c>
+      <c r="B191" s="4">
+        <v>106</v>
+      </c>
+      <c r="C191" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A192" s="4">
+        <v>2</v>
+      </c>
+      <c r="B192" s="4">
+        <v>107</v>
+      </c>
+      <c r="C192" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A193" s="4">
+        <v>2</v>
+      </c>
+      <c r="B193" s="4">
+        <v>108</v>
+      </c>
+      <c r="C193" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A194" s="4">
+        <v>2</v>
+      </c>
+      <c r="B194" s="4">
+        <v>109</v>
+      </c>
+      <c r="C194" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A195" s="4">
+        <v>2</v>
+      </c>
+      <c r="B195" s="4">
+        <v>110</v>
+      </c>
+      <c r="C195" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A196" s="4">
+        <v>2</v>
+      </c>
+      <c r="B196" s="4">
+        <v>111</v>
+      </c>
+      <c r="C196" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A197" s="4">
+        <v>2</v>
+      </c>
+      <c r="B197" s="4">
+        <v>112</v>
+      </c>
+      <c r="C197" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A198" s="4">
+        <v>2</v>
+      </c>
+      <c r="B198" s="4">
+        <v>113</v>
+      </c>
+      <c r="C198" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A199" s="4">
+        <v>2</v>
+      </c>
+      <c r="B199" s="4">
+        <v>114</v>
+      </c>
+      <c r="C199" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A200" s="4">
+        <v>2</v>
+      </c>
+      <c r="B200" s="4">
+        <v>115</v>
+      </c>
+      <c r="C200" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="333" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="388" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Courses/Courses/poc_projects/table_data.xlsx
+++ b/Courses/Courses/poc_projects/table_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr showObjects="none" filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1B0E160D-19DE-4C8F-B70A-AF54F5563BF0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5E0F9BC0-5F28-49BD-8D50-51DA9ABAAAAC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="1125" windowWidth="14805" windowHeight="6990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -572,7 +572,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="5">
-        <v>0.86599999999999999</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -583,7 +583,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="5">
-        <v>0.89600000000000002</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -594,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="5">
-        <v>0.92700000000000005</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -605,7 +605,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="5">
-        <v>0.95899999999999996</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -616,7 +616,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="5">
-        <v>0.99099999999999999</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -627,7 +627,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="5">
-        <v>1.024</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -638,7 +638,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="5">
-        <v>1.0569999999999999</v>
+        <v>0.11799999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="5">
-        <v>1.0920000000000001</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -660,7 +660,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="5">
-        <v>1.127</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -671,7 +671,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="5">
-        <v>1.1619999999999999</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -682,7 +682,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="5">
-        <v>1.198</v>
+        <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -693,7 +693,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="5">
-        <v>1.2350000000000001</v>
+        <v>0.13600000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -704,7 +704,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="5">
-        <v>1.27</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -715,7 +715,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="5">
-        <v>1.304</v>
+        <v>0.14399999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -726,7 +726,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="5">
-        <v>1.335</v>
+        <v>0.14699999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -737,7 +737,7 @@
         <v>32</v>
       </c>
       <c r="C18" s="5">
-        <v>1.361</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -748,7 +748,7 @@
         <v>33</v>
       </c>
       <c r="C19" s="5">
-        <v>1.381</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -759,7 +759,7 @@
         <v>34</v>
       </c>
       <c r="C20" s="5">
-        <v>1.3919999999999999</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -770,7 +770,7 @@
         <v>35</v>
       </c>
       <c r="C21" s="5">
-        <v>1.3919999999999999</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -781,7 +781,7 @@
         <v>36</v>
       </c>
       <c r="C22" s="5">
-        <v>1.381</v>
+        <v>0.16200000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -792,7 +792,7 @@
         <v>37</v>
       </c>
       <c r="C23" s="5">
-        <v>1.359</v>
+        <v>0.16300000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -803,7 +803,7 @@
         <v>38</v>
       </c>
       <c r="C24" s="5">
-        <v>1.327</v>
+        <v>0.16400000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -814,7 +814,7 @@
         <v>39</v>
       </c>
       <c r="C25" s="5">
-        <v>1.2869999999999999</v>
+        <v>0.16400000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -825,7 +825,7 @@
         <v>40</v>
       </c>
       <c r="C26" s="5">
-        <v>1.2390000000000001</v>
+        <v>0.16300000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -836,7 +836,7 @@
         <v>41</v>
       </c>
       <c r="C27" s="5">
-        <v>1.1850000000000001</v>
+        <v>0.16200000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -847,7 +847,7 @@
         <v>42</v>
       </c>
       <c r="C28" s="5">
-        <v>1.1259999999999999</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -858,7 +858,7 @@
         <v>43</v>
       </c>
       <c r="C29" s="5">
-        <v>1.0629999999999999</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -869,7 +869,7 @@
         <v>44</v>
       </c>
       <c r="C30" s="5">
-        <v>0.996</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -880,7 +880,7 @@
         <v>45</v>
       </c>
       <c r="C31" s="5">
-        <v>0.92600000000000005</v>
+        <v>0.14699999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -891,7 +891,7 @@
         <v>46</v>
       </c>
       <c r="C32" s="5">
-        <v>0.85399999999999998</v>
+        <v>0.14099999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -902,7 +902,7 @@
         <v>47</v>
       </c>
       <c r="C33" s="5">
-        <v>0.78100000000000003</v>
+        <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -913,7 +913,7 @@
         <v>48</v>
       </c>
       <c r="C34" s="5">
-        <v>0.70699999999999996</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -924,7 +924,7 @@
         <v>49</v>
       </c>
       <c r="C35" s="5">
-        <v>0.63400000000000001</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -935,7 +935,7 @@
         <v>50</v>
       </c>
       <c r="C36" s="5">
-        <v>0.56200000000000006</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -946,7 +946,7 @@
         <v>51</v>
       </c>
       <c r="C37" s="5">
-        <v>0.49399999999999999</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -957,7 +957,7 @@
         <v>52</v>
       </c>
       <c r="C38" s="5">
-        <v>0.42899999999999999</v>
+        <v>9.7000000000000003E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -968,7 +968,7 @@
         <v>53</v>
       </c>
       <c r="C39" s="5">
-        <v>0.36899999999999999</v>
+        <v>8.8999999999999996E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -979,7 +979,7 @@
         <v>54</v>
       </c>
       <c r="C40" s="5">
-        <v>0.315</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -990,7 +990,7 @@
         <v>55</v>
       </c>
       <c r="C41" s="5">
-        <v>0.26500000000000001</v>
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1001,7 +1001,7 @@
         <v>56</v>
       </c>
       <c r="C42" s="5">
-        <v>0.221</v>
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1012,7 +1012,7 @@
         <v>57</v>
       </c>
       <c r="C43" s="5">
-        <v>0.182</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1023,7 +1023,7 @@
         <v>58</v>
       </c>
       <c r="C44" s="5">
-        <v>0.14799999999999999</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1034,7 +1034,7 @@
         <v>59</v>
       </c>
       <c r="C45" s="5">
-        <v>0.12</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1045,7 +1045,7 @@
         <v>60</v>
       </c>
       <c r="C46" s="5">
-        <v>9.5000000000000001E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1056,7 +1056,7 @@
         <v>61</v>
       </c>
       <c r="C47" s="5">
-        <v>7.4999999999999997E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1067,7 +1067,7 @@
         <v>62</v>
       </c>
       <c r="C48" s="5">
-        <v>5.8999999999999997E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1078,7 +1078,7 @@
         <v>63</v>
       </c>
       <c r="C49" s="5">
-        <v>4.4999999999999998E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1089,7 +1089,7 @@
         <v>64</v>
       </c>
       <c r="C50" s="5">
-        <v>3.4000000000000002E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1661,7 +1661,7 @@
         <v>17</v>
       </c>
       <c r="C102" s="5">
-        <v>0.66100000000000003</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1672,7 +1672,7 @@
         <v>18</v>
       </c>
       <c r="C103" s="5">
-        <v>0.68200000000000005</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1683,7 +1683,7 @@
         <v>19</v>
       </c>
       <c r="C104" s="5">
-        <v>0.70399999999999996</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1694,7 +1694,7 @@
         <v>20</v>
       </c>
       <c r="C105" s="5">
-        <v>0.72699999999999998</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1705,7 +1705,7 @@
         <v>21</v>
       </c>
       <c r="C106" s="5">
-        <v>0.75</v>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1716,7 +1716,7 @@
         <v>22</v>
       </c>
       <c r="C107" s="5">
-        <v>0.77400000000000002</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1727,7 +1727,7 @@
         <v>23</v>
       </c>
       <c r="C108" s="5">
-        <v>0.79900000000000004</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1738,7 +1738,7 @@
         <v>24</v>
       </c>
       <c r="C109" s="5">
-        <v>0.82399999999999995</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1749,7 +1749,7 @@
         <v>25</v>
       </c>
       <c r="C110" s="5">
-        <v>0.84799999999999998</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1760,7 +1760,7 @@
         <v>26</v>
       </c>
       <c r="C111" s="5">
-        <v>0.873</v>
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1771,7 +1771,7 @@
         <v>27</v>
       </c>
       <c r="C112" s="5">
-        <v>0.89600000000000002</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1782,7 +1782,7 @@
         <v>28</v>
       </c>
       <c r="C113" s="5">
-        <v>0.91800000000000004</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1793,7 +1793,7 @@
         <v>29</v>
       </c>
       <c r="C114" s="5">
-        <v>0.93700000000000006</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1804,7 +1804,7 @@
         <v>30</v>
       </c>
       <c r="C115" s="5">
-        <v>0.95199999999999996</v>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1815,7 +1815,7 @@
         <v>31</v>
       </c>
       <c r="C116" s="5">
-        <v>0.96199999999999997</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1826,7 +1826,7 @@
         <v>32</v>
       </c>
       <c r="C117" s="5">
-        <v>0.96699999999999997</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1837,7 +1837,7 @@
         <v>33</v>
       </c>
       <c r="C118" s="5">
-        <v>0.96499999999999997</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1848,7 +1848,7 @@
         <v>34</v>
       </c>
       <c r="C119" s="5">
-        <v>0.95499999999999996</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1859,7 +1859,7 @@
         <v>35</v>
       </c>
       <c r="C120" s="5">
-        <v>0.93700000000000006</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1870,7 +1870,7 @@
         <v>36</v>
       </c>
       <c r="C121" s="5">
-        <v>0.91</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1881,7 +1881,7 @@
         <v>37</v>
       </c>
       <c r="C122" s="5">
-        <v>0.875</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1892,7 +1892,7 @@
         <v>38</v>
       </c>
       <c r="C123" s="5">
-        <v>0.83199999999999996</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1903,7 +1903,7 @@
         <v>39</v>
       </c>
       <c r="C124" s="5">
-        <v>0.78400000000000003</v>
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1914,7 +1914,7 @@
         <v>40</v>
       </c>
       <c r="C125" s="5">
-        <v>0.73099999999999998</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1925,7 +1925,7 @@
         <v>41</v>
       </c>
       <c r="C126" s="5">
-        <v>0.67400000000000004</v>
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1936,7 +1936,7 @@
         <v>42</v>
       </c>
       <c r="C127" s="5">
-        <v>0.61499999999999999</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1947,7 +1947,7 @@
         <v>43</v>
       </c>
       <c r="C128" s="5">
-        <v>0.55500000000000005</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1958,7 +1958,7 @@
         <v>44</v>
       </c>
       <c r="C129" s="5">
-        <v>0.495</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1969,7 +1969,7 @@
         <v>45</v>
       </c>
       <c r="C130" s="5">
-        <v>0.438</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1980,7 +1980,7 @@
         <v>46</v>
       </c>
       <c r="C131" s="5">
-        <v>0.38300000000000001</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -1991,7 +1991,7 @@
         <v>47</v>
       </c>
       <c r="C132" s="5">
-        <v>0.33200000000000002</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -2002,7 +2002,7 @@
         <v>48</v>
       </c>
       <c r="C133" s="5">
-        <v>0.28599999999999998</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -2013,7 +2013,7 @@
         <v>49</v>
       </c>
       <c r="C134" s="5">
-        <v>0.24299999999999999</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -2024,7 +2024,7 @@
         <v>50</v>
       </c>
       <c r="C135" s="5">
-        <v>0.20599999999999999</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -2035,7 +2035,7 @@
         <v>51</v>
       </c>
       <c r="C136" s="5">
-        <v>0.17299999999999999</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -2046,7 +2046,7 @@
         <v>52</v>
       </c>
       <c r="C137" s="5">
-        <v>0.14399999999999999</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -2057,7 +2057,7 @@
         <v>53</v>
       </c>
       <c r="C138" s="5">
-        <v>0.11899999999999999</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -2068,7 +2068,7 @@
         <v>54</v>
       </c>
       <c r="C139" s="5">
-        <v>9.7000000000000003E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -2079,7 +2079,7 @@
         <v>55</v>
       </c>
       <c r="C140" s="5">
-        <v>7.8E-2</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -2090,7 +2090,7 @@
         <v>56</v>
       </c>
       <c r="C141" s="5">
-        <v>6.0999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -2101,7 +2101,7 @@
         <v>57</v>
       </c>
       <c r="C142" s="5">
-        <v>4.5999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -2112,7 +2112,7 @@
         <v>58</v>
       </c>
       <c r="C143" s="5">
-        <v>3.4000000000000002E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -2123,7 +2123,7 @@
         <v>59</v>
       </c>
       <c r="C144" s="5">
-        <v>2.4E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -2134,7 +2134,7 @@
         <v>60</v>
       </c>
       <c r="C145" s="5">
-        <v>1.6E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -2145,7 +2145,7 @@
         <v>61</v>
       </c>
       <c r="C146" s="5">
-        <v>1.0999999999999999E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -2156,7 +2156,7 @@
         <v>62</v>
       </c>
       <c r="C147" s="5">
-        <v>7.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -2167,7 +2167,7 @@
         <v>63</v>
       </c>
       <c r="C148" s="5">
-        <v>4.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -2178,7 +2178,7 @@
         <v>64</v>
       </c>
       <c r="C149" s="5">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">

--- a/Courses/Courses/poc_projects/table_data.xlsx
+++ b/Courses/Courses/poc_projects/table_data.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr showObjects="none" filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5E0F9BC0-5F28-49BD-8D50-51DA9ABAAAAC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1125" windowWidth="14805" windowHeight="6990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="1125" windowWidth="14805" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="ATOS-TTAFLP" sheetId="65" r:id="rId1"/>
@@ -17,18 +16,19 @@
     <definedName name="arrondi_coti">'[1]Contrôle divers'!$N$10</definedName>
     <definedName name="collectif" localSheetId="0">#REF!</definedName>
     <definedName name="collectif">#REF!</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="role_tasks" localSheetId="0">#REF!</definedName>
     <definedName name="role_tasks">#REF!</definedName>
     <definedName name="s">'[1]Contrôle divers'!$A$3:$B$4</definedName>
     <definedName name="tasks" localSheetId="0">#REF!</definedName>
     <definedName name="tasks">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="7">
   <si>
     <t>VALNUM_VAPA</t>
   </si>
@@ -41,14 +41,23 @@
   <si>
     <t>N</t>
   </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -115,7 +124,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -125,17 +134,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Milliers 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Milliers 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -211,7 +248,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -286,23 +323,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -338,23 +358,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -530,19 +533,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC1C1C6-D816-466C-9165-75C22049ED64}">
-  <dimension ref="A1:C388"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D388"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -550,10 +553,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -561,2184 +567,2781 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4">
         <v>17</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5">
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="4">
         <v>18</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5">
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="4">
         <v>19</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5">
         <v>0.105</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="4">
         <v>20</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5">
         <v>0.108</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" s="4">
         <v>21</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5">
         <v>0.111</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="4">
         <v>22</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5">
         <v>0.115</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
       <c r="B9" s="4">
         <v>23</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5">
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1</v>
       </c>
       <c r="B10" s="4">
         <v>24</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5">
         <v>0.122</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>1</v>
       </c>
       <c r="B11" s="4">
         <v>25</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5">
         <v>0.125</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1</v>
       </c>
       <c r="B12" s="4">
         <v>26</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5">
         <v>0.129</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1</v>
       </c>
       <c r="B13" s="4">
         <v>27</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5">
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>1</v>
       </c>
       <c r="B14" s="4">
         <v>28</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="5">
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>1</v>
       </c>
       <c r="B15" s="4">
         <v>29</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>1</v>
       </c>
       <c r="B16" s="4">
         <v>30</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5">
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
       <c r="B17" s="4">
         <v>31</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5">
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>1</v>
       </c>
       <c r="B18" s="4">
         <v>32</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="5">
         <v>0.151</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>1</v>
       </c>
       <c r="B19" s="4">
         <v>33</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="5">
         <v>0.154</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>1</v>
       </c>
       <c r="B20" s="4">
         <v>34</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="5">
         <v>0.157</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>1</v>
       </c>
       <c r="B21" s="4">
         <v>35</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="5">
         <v>0.16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>1</v>
       </c>
       <c r="B22" s="4">
         <v>36</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="5">
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>1</v>
       </c>
       <c r="B23" s="4">
         <v>37</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="5">
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>1</v>
       </c>
       <c r="B24" s="4">
         <v>38</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="5">
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>1</v>
       </c>
       <c r="B25" s="4">
         <v>39</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="5">
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>1</v>
       </c>
       <c r="B26" s="4">
         <v>40</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="5">
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>1</v>
       </c>
       <c r="B27" s="4">
         <v>41</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="5">
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>1</v>
       </c>
       <c r="B28" s="4">
         <v>42</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="5">
         <v>0.159</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>1</v>
       </c>
       <c r="B29" s="4">
         <v>43</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="5">
         <v>0.156</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>1</v>
       </c>
       <c r="B30" s="4">
         <v>44</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="5">
         <v>0.152</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>1</v>
       </c>
       <c r="B31" s="4">
         <v>45</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="5">
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>1</v>
       </c>
       <c r="B32" s="4">
         <v>46</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="5">
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>1</v>
       </c>
       <c r="B33" s="4">
         <v>47</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="5">
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>1</v>
       </c>
       <c r="B34" s="4">
         <v>48</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="5">
         <v>0.128</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>1</v>
       </c>
       <c r="B35" s="4">
         <v>49</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="5">
         <v>0.12</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>1</v>
       </c>
       <c r="B36" s="4">
         <v>50</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="5">
         <v>0.113</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>1</v>
       </c>
       <c r="B37" s="4">
         <v>51</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="5">
         <v>0.105</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>1</v>
       </c>
       <c r="B38" s="4">
         <v>52</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="5">
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>1</v>
       </c>
       <c r="B39" s="4">
         <v>53</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="5">
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>1</v>
       </c>
       <c r="B40" s="4">
         <v>54</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="5">
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>1</v>
       </c>
       <c r="B41" s="4">
         <v>55</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="5">
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>1</v>
       </c>
       <c r="B42" s="4">
         <v>56</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="5">
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>1</v>
       </c>
       <c r="B43" s="4">
         <v>57</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="5">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>1</v>
       </c>
       <c r="B44" s="4">
         <v>58</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="5">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>1</v>
       </c>
       <c r="B45" s="4">
         <v>59</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="5">
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>1</v>
       </c>
       <c r="B46" s="4">
         <v>60</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="5">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>1</v>
       </c>
       <c r="B47" s="4">
         <v>61</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="5">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>1</v>
       </c>
       <c r="B48" s="4">
         <v>62</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="5">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>1</v>
       </c>
       <c r="B49" s="4">
         <v>63</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="5">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>1</v>
       </c>
       <c r="B50" s="4">
         <v>64</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="5">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>1</v>
       </c>
       <c r="B51" s="4">
         <v>65</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="5">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>1</v>
       </c>
       <c r="B52" s="4">
         <v>66</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="5">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>1</v>
       </c>
       <c r="B53" s="4">
         <v>67</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="5">
         <v>0.02</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>1</v>
       </c>
       <c r="B54" s="4">
         <v>68</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="5">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>1</v>
       </c>
       <c r="B55" s="4">
         <v>69</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="5">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>1</v>
       </c>
       <c r="B56" s="4">
         <v>70</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>1</v>
       </c>
       <c r="B57" s="4">
         <v>71</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="5">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>1</v>
       </c>
       <c r="B58" s="4">
         <v>72</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="5">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>1</v>
       </c>
       <c r="B59" s="4">
         <v>73</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="5">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>1</v>
       </c>
       <c r="B60" s="4">
         <v>74</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="5">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>1</v>
       </c>
       <c r="B61" s="4">
         <v>75</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="5">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>1</v>
       </c>
       <c r="B62" s="4">
         <v>76</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="5">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>1</v>
       </c>
       <c r="B63" s="4">
         <v>77</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>1</v>
       </c>
       <c r="B64" s="4">
         <v>78</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>1</v>
       </c>
       <c r="B65" s="4">
         <v>79</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="5">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>1</v>
       </c>
       <c r="B66" s="4">
         <v>80</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="5">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>1</v>
       </c>
       <c r="B67" s="4">
         <v>81</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>1</v>
       </c>
       <c r="B68" s="4">
         <v>82</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>1</v>
       </c>
       <c r="B69" s="4">
         <v>83</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>1</v>
       </c>
       <c r="B70" s="4">
         <v>84</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>1</v>
       </c>
       <c r="B71" s="4">
         <v>85</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>1</v>
       </c>
       <c r="B72" s="4">
         <v>86</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>1</v>
       </c>
       <c r="B73" s="4">
         <v>87</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>1</v>
       </c>
       <c r="B74" s="4">
         <v>88</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>1</v>
       </c>
       <c r="B75" s="4">
         <v>89</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>1</v>
       </c>
       <c r="B76" s="4">
         <v>90</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="5">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>1</v>
       </c>
       <c r="B77" s="4">
         <v>91</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="5">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>1</v>
       </c>
       <c r="B78" s="4">
         <v>92</v>
       </c>
-      <c r="C78" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>1</v>
       </c>
       <c r="B79" s="4">
         <v>93</v>
       </c>
-      <c r="C79" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>1</v>
       </c>
       <c r="B80" s="4">
         <v>94</v>
       </c>
-      <c r="C80" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>1</v>
       </c>
       <c r="B81" s="4">
         <v>95</v>
       </c>
-      <c r="C81" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>1</v>
       </c>
       <c r="B82" s="4">
         <v>96</v>
       </c>
-      <c r="C82" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>1</v>
       </c>
       <c r="B83" s="4">
         <v>97</v>
       </c>
-      <c r="C83" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C83" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>1</v>
       </c>
       <c r="B84" s="4">
         <v>98</v>
       </c>
-      <c r="C84" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C84" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>1</v>
       </c>
       <c r="B85" s="4">
         <v>99</v>
       </c>
-      <c r="C85" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C85" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>1</v>
       </c>
       <c r="B86" s="4">
         <v>100</v>
       </c>
-      <c r="C86" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C86" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>1</v>
       </c>
       <c r="B87" s="4">
         <v>101</v>
       </c>
-      <c r="C87" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C87" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>1</v>
       </c>
       <c r="B88" s="4">
         <v>102</v>
       </c>
-      <c r="C88" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C88" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>1</v>
       </c>
       <c r="B89" s="4">
         <v>103</v>
       </c>
-      <c r="C89" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C89" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>1</v>
       </c>
       <c r="B90" s="4">
         <v>104</v>
       </c>
-      <c r="C90" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C90" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>1</v>
       </c>
       <c r="B91" s="4">
         <v>105</v>
       </c>
-      <c r="C91" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C91" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>1</v>
       </c>
       <c r="B92" s="4">
         <v>106</v>
       </c>
-      <c r="C92" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C92" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>1</v>
       </c>
       <c r="B93" s="4">
         <v>107</v>
       </c>
-      <c r="C93" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>1</v>
       </c>
       <c r="B94" s="4">
         <v>108</v>
       </c>
-      <c r="C94" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>1</v>
       </c>
       <c r="B95" s="4">
         <v>109</v>
       </c>
-      <c r="C95" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>1</v>
       </c>
       <c r="B96" s="4">
         <v>110</v>
       </c>
-      <c r="C96" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>1</v>
       </c>
       <c r="B97" s="4">
         <v>111</v>
       </c>
-      <c r="C97" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>1</v>
       </c>
       <c r="B98" s="4">
         <v>112</v>
       </c>
-      <c r="C98" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C98" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>1</v>
       </c>
       <c r="B99" s="4">
         <v>113</v>
       </c>
-      <c r="C99" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>1</v>
       </c>
       <c r="B100" s="4">
         <v>114</v>
       </c>
-      <c r="C100" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>1</v>
       </c>
       <c r="B101" s="4">
         <v>115</v>
       </c>
-      <c r="C101" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C101" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>2</v>
       </c>
       <c r="B102" s="4">
         <v>17</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="5">
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>2</v>
       </c>
       <c r="B103" s="4">
         <v>18</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="5">
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>2</v>
       </c>
       <c r="B104" s="4">
         <v>19</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C104" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="5">
         <v>0.05</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>2</v>
       </c>
       <c r="B105" s="4">
         <v>20</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="5">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>2</v>
       </c>
       <c r="B106" s="4">
         <v>21</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="5">
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>2</v>
       </c>
       <c r="B107" s="4">
         <v>22</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="5">
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>2</v>
       </c>
       <c r="B108" s="4">
         <v>23</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="5">
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>2</v>
       </c>
       <c r="B109" s="4">
         <v>24</v>
       </c>
-      <c r="C109" s="5">
+      <c r="C109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="5">
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>2</v>
       </c>
       <c r="B110" s="4">
         <v>25</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="5">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>2</v>
       </c>
       <c r="B111" s="4">
         <v>26</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="5">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>2</v>
       </c>
       <c r="B112" s="4">
         <v>27</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="5">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>2</v>
       </c>
       <c r="B113" s="4">
         <v>28</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="5">
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>2</v>
       </c>
       <c r="B114" s="4">
         <v>29</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="5">
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>2</v>
       </c>
       <c r="B115" s="4">
         <v>30</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="5">
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>2</v>
       </c>
       <c r="B116" s="4">
         <v>31</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="5">
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>2</v>
       </c>
       <c r="B117" s="4">
         <v>32</v>
       </c>
-      <c r="C117" s="5">
+      <c r="C117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="5">
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>2</v>
       </c>
       <c r="B118" s="4">
         <v>33</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C118" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>2</v>
       </c>
       <c r="B119" s="4">
         <v>34</v>
       </c>
-      <c r="C119" s="5">
+      <c r="C119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>2</v>
       </c>
       <c r="B120" s="4">
         <v>35</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>2</v>
       </c>
       <c r="B121" s="4">
         <v>36</v>
       </c>
-      <c r="C121" s="5">
+      <c r="C121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>2</v>
       </c>
       <c r="B122" s="4">
         <v>37</v>
       </c>
-      <c r="C122" s="5">
+      <c r="C122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="5">
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>2</v>
       </c>
       <c r="B123" s="4">
         <v>38</v>
       </c>
-      <c r="C123" s="5">
+      <c r="C123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="5">
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>2</v>
       </c>
       <c r="B124" s="4">
         <v>39</v>
       </c>
-      <c r="C124" s="5">
+      <c r="C124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="5">
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>2</v>
       </c>
       <c r="B125" s="4">
         <v>40</v>
       </c>
-      <c r="C125" s="5">
+      <c r="C125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="5">
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>2</v>
       </c>
       <c r="B126" s="4">
         <v>41</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C126" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="5">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>2</v>
       </c>
       <c r="B127" s="4">
         <v>42</v>
       </c>
-      <c r="C127" s="5">
+      <c r="C127" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" s="5">
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>2</v>
       </c>
       <c r="B128" s="4">
         <v>43</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C128" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="5">
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>2</v>
       </c>
       <c r="B129" s="4">
         <v>44</v>
       </c>
-      <c r="C129" s="5">
+      <c r="C129" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="5">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>2</v>
       </c>
       <c r="B130" s="4">
         <v>45</v>
       </c>
-      <c r="C130" s="5">
+      <c r="C130" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" s="5">
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>2</v>
       </c>
       <c r="B131" s="4">
         <v>46</v>
       </c>
-      <c r="C131" s="5">
+      <c r="C131" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="5">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>2</v>
       </c>
       <c r="B132" s="4">
         <v>47</v>
       </c>
-      <c r="C132" s="5">
+      <c r="C132" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" s="5">
         <v>0.04</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>2</v>
       </c>
       <c r="B133" s="4">
         <v>48</v>
       </c>
-      <c r="C133" s="5">
+      <c r="C133" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" s="5">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>2</v>
       </c>
       <c r="B134" s="4">
         <v>49</v>
       </c>
-      <c r="C134" s="5">
+      <c r="C134" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" s="5">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>2</v>
       </c>
       <c r="B135" s="4">
         <v>50</v>
       </c>
-      <c r="C135" s="5">
+      <c r="C135" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="5">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>2</v>
       </c>
       <c r="B136" s="4">
         <v>51</v>
       </c>
-      <c r="C136" s="5">
+      <c r="C136" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="5">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>2</v>
       </c>
       <c r="B137" s="4">
         <v>52</v>
       </c>
-      <c r="C137" s="5">
+      <c r="C137" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" s="5">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>2</v>
       </c>
       <c r="B138" s="4">
         <v>53</v>
       </c>
-      <c r="C138" s="5">
+      <c r="C138" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="5">
         <v>0.02</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>2</v>
       </c>
       <c r="B139" s="4">
         <v>54</v>
       </c>
-      <c r="C139" s="5">
+      <c r="C139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>2</v>
       </c>
       <c r="B140" s="4">
         <v>55</v>
       </c>
-      <c r="C140" s="5">
+      <c r="C140" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="5">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>2</v>
       </c>
       <c r="B141" s="4">
         <v>56</v>
       </c>
-      <c r="C141" s="5">
+      <c r="C141" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" s="5">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>2</v>
       </c>
       <c r="B142" s="4">
         <v>57</v>
       </c>
-      <c r="C142" s="5">
+      <c r="C142" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="5">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>2</v>
       </c>
       <c r="B143" s="4">
         <v>58</v>
       </c>
-      <c r="C143" s="5">
+      <c r="C143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>2</v>
       </c>
       <c r="B144" s="4">
         <v>59</v>
       </c>
-      <c r="C144" s="5">
+      <c r="C144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>2</v>
       </c>
       <c r="B145" s="4">
         <v>60</v>
       </c>
-      <c r="C145" s="5">
+      <c r="C145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>2</v>
       </c>
       <c r="B146" s="4">
         <v>61</v>
       </c>
-      <c r="C146" s="5">
+      <c r="C146" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>2</v>
       </c>
       <c r="B147" s="4">
         <v>62</v>
       </c>
-      <c r="C147" s="5">
+      <c r="C147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="5">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>2</v>
       </c>
       <c r="B148" s="4">
         <v>63</v>
       </c>
-      <c r="C148" s="5">
+      <c r="C148" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="5">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>2</v>
       </c>
       <c r="B149" s="4">
         <v>64</v>
       </c>
-      <c r="C149" s="5">
+      <c r="C149" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" s="5">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>2</v>
       </c>
       <c r="B150" s="4">
         <v>65</v>
       </c>
-      <c r="C150" s="5">
+      <c r="C150" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="5">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>2</v>
       </c>
       <c r="B151" s="4">
         <v>66</v>
       </c>
-      <c r="C151" s="5">
+      <c r="C151" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" s="5">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>2</v>
       </c>
       <c r="B152" s="4">
         <v>67</v>
       </c>
-      <c r="C152" s="5">
+      <c r="C152" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="5">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>2</v>
       </c>
       <c r="B153" s="4">
         <v>68</v>
       </c>
-      <c r="C153" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C153" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>2</v>
       </c>
       <c r="B154" s="4">
         <v>69</v>
       </c>
-      <c r="C154" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C154" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>2</v>
       </c>
       <c r="B155" s="4">
         <v>70</v>
       </c>
-      <c r="C155" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C155" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>2</v>
       </c>
       <c r="B156" s="4">
         <v>71</v>
       </c>
-      <c r="C156" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C156" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>2</v>
       </c>
       <c r="B157" s="4">
         <v>72</v>
       </c>
-      <c r="C157" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C157" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>2</v>
       </c>
       <c r="B158" s="4">
         <v>73</v>
       </c>
-      <c r="C158" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C158" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>2</v>
       </c>
       <c r="B159" s="4">
         <v>74</v>
       </c>
-      <c r="C159" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>2</v>
       </c>
       <c r="B160" s="4">
         <v>75</v>
       </c>
-      <c r="C160" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
         <v>2</v>
       </c>
       <c r="B161" s="4">
         <v>76</v>
       </c>
-      <c r="C161" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C161" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>2</v>
       </c>
       <c r="B162" s="4">
         <v>77</v>
       </c>
-      <c r="C162" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
         <v>2</v>
       </c>
       <c r="B163" s="4">
         <v>78</v>
       </c>
-      <c r="C163" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
         <v>2</v>
       </c>
       <c r="B164" s="4">
         <v>79</v>
       </c>
-      <c r="C164" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
         <v>2</v>
       </c>
       <c r="B165" s="4">
         <v>80</v>
       </c>
-      <c r="C165" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
         <v>2</v>
       </c>
       <c r="B166" s="4">
         <v>81</v>
       </c>
-      <c r="C166" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>2</v>
       </c>
       <c r="B167" s="4">
         <v>82</v>
       </c>
-      <c r="C167" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C167" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
         <v>2</v>
       </c>
       <c r="B168" s="4">
         <v>83</v>
       </c>
-      <c r="C168" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C168" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>2</v>
       </c>
       <c r="B169" s="4">
         <v>84</v>
       </c>
-      <c r="C169" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C169" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
         <v>2</v>
       </c>
       <c r="B170" s="4">
         <v>85</v>
       </c>
-      <c r="C170" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C170" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
         <v>2</v>
       </c>
       <c r="B171" s="4">
         <v>86</v>
       </c>
-      <c r="C171" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C171" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
         <v>2</v>
       </c>
       <c r="B172" s="4">
         <v>87</v>
       </c>
-      <c r="C172" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
         <v>2</v>
       </c>
       <c r="B173" s="4">
         <v>88</v>
       </c>
-      <c r="C173" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C173" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
         <v>2</v>
       </c>
       <c r="B174" s="4">
         <v>89</v>
       </c>
-      <c r="C174" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
         <v>2</v>
       </c>
       <c r="B175" s="4">
         <v>90</v>
       </c>
-      <c r="C175" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C175" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
         <v>2</v>
       </c>
       <c r="B176" s="4">
         <v>91</v>
       </c>
-      <c r="C176" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C176" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
         <v>2</v>
       </c>
       <c r="B177" s="4">
         <v>92</v>
       </c>
-      <c r="C177" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C177" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
         <v>2</v>
       </c>
       <c r="B178" s="4">
         <v>93</v>
       </c>
-      <c r="C178" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
         <v>2</v>
       </c>
       <c r="B179" s="4">
         <v>94</v>
       </c>
-      <c r="C179" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
         <v>2</v>
       </c>
       <c r="B180" s="4">
         <v>95</v>
       </c>
-      <c r="C180" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
         <v>2</v>
       </c>
       <c r="B181" s="4">
         <v>96</v>
       </c>
-      <c r="C181" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
         <v>2</v>
       </c>
       <c r="B182" s="4">
         <v>97</v>
       </c>
-      <c r="C182" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C182" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
         <v>2</v>
       </c>
       <c r="B183" s="4">
         <v>98</v>
       </c>
-      <c r="C183" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
         <v>2</v>
       </c>
       <c r="B184" s="4">
         <v>99</v>
       </c>
-      <c r="C184" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C184" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
         <v>2</v>
       </c>
       <c r="B185" s="4">
         <v>100</v>
       </c>
-      <c r="C185" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C185" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
         <v>2</v>
       </c>
       <c r="B186" s="4">
         <v>101</v>
       </c>
-      <c r="C186" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C186" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
         <v>2</v>
       </c>
       <c r="B187" s="4">
         <v>102</v>
       </c>
-      <c r="C187" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
         <v>2</v>
       </c>
       <c r="B188" s="4">
         <v>103</v>
       </c>
-      <c r="C188" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C188" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
         <v>2</v>
       </c>
       <c r="B189" s="4">
         <v>104</v>
       </c>
-      <c r="C189" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C189" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
         <v>2</v>
       </c>
       <c r="B190" s="4">
         <v>105</v>
       </c>
-      <c r="C190" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C190" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
         <v>2</v>
       </c>
       <c r="B191" s="4">
         <v>106</v>
       </c>
-      <c r="C191" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C191" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
         <v>2</v>
       </c>
       <c r="B192" s="4">
         <v>107</v>
       </c>
-      <c r="C192" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C192" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
         <v>2</v>
       </c>
       <c r="B193" s="4">
         <v>108</v>
       </c>
-      <c r="C193" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C193" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
         <v>2</v>
       </c>
       <c r="B194" s="4">
         <v>109</v>
       </c>
-      <c r="C194" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C194" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
         <v>2</v>
       </c>
       <c r="B195" s="4">
         <v>110</v>
       </c>
-      <c r="C195" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C195" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
         <v>2</v>
       </c>
       <c r="B196" s="4">
         <v>111</v>
       </c>
-      <c r="C196" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C196" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
         <v>2</v>
       </c>
       <c r="B197" s="4">
         <v>112</v>
       </c>
-      <c r="C197" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C197" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
         <v>2</v>
       </c>
       <c r="B198" s="4">
         <v>113</v>
       </c>
-      <c r="C198" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C198" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="4">
         <v>2</v>
       </c>
       <c r="B199" s="4">
         <v>114</v>
       </c>
-      <c r="C199" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C199" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
         <v>2</v>
       </c>
       <c r="B200" s="4">
         <v>115</v>
       </c>
-      <c r="C200" s="5">
+      <c r="C200" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Courses/Courses/poc_projects/table_data.xlsx
+++ b/Courses/Courses/poc_projects/table_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr showObjects="none" filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ED8230FB-93E9-44A0-9BA4-A1F89EBB4A1F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F3FBEE36-8294-457D-98DD-AC873F16E8C9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="1125" windowWidth="14805" windowHeight="6990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,7 +602,7 @@
     </row>
     <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -611,12 +611,12 @@
         <v>17</v>
       </c>
       <c r="D3" s="5">
-        <v>0.93899999999999995</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -625,12 +625,12 @@
         <v>18</v>
       </c>
       <c r="D4" s="5">
-        <v>0.96899999999999997</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -639,12 +639,12 @@
         <v>19</v>
       </c>
       <c r="D5" s="5">
-        <v>1</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -653,12 +653,12 @@
         <v>20</v>
       </c>
       <c r="D6" s="5">
-        <v>1.0309999999999999</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -667,12 +667,12 @@
         <v>21</v>
       </c>
       <c r="D7" s="5">
-        <v>1.0640000000000001</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -681,12 +681,12 @@
         <v>22</v>
       </c>
       <c r="D8" s="5">
-        <v>1.0960000000000001</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -695,12 +695,12 @@
         <v>23</v>
       </c>
       <c r="D9" s="5">
-        <v>1.1299999999999999</v>
+        <v>0.11799999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -709,12 +709,12 @@
         <v>24</v>
       </c>
       <c r="D10" s="5">
-        <v>1.1639999999999999</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -723,12 +723,12 @@
         <v>25</v>
       </c>
       <c r="D11" s="5">
-        <v>1.198</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -737,12 +737,12 @@
         <v>26</v>
       </c>
       <c r="D12" s="5">
-        <v>1.2330000000000001</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -751,12 +751,12 @@
         <v>27</v>
       </c>
       <c r="D13" s="5">
-        <v>1.2689999999999999</v>
+        <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -765,12 +765,12 @@
         <v>28</v>
       </c>
       <c r="D14" s="5">
-        <v>1.304</v>
+        <v>0.13600000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -779,12 +779,12 @@
         <v>29</v>
       </c>
       <c r="D15" s="5">
-        <v>1.339</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -793,12 +793,12 @@
         <v>30</v>
       </c>
       <c r="D16" s="5">
-        <v>1.3720000000000001</v>
+        <v>0.14399999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
@@ -807,12 +807,12 @@
         <v>31</v>
       </c>
       <c r="D17" s="5">
-        <v>1.4019999999999999</v>
+        <v>0.14699999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -821,12 +821,12 @@
         <v>32</v>
       </c>
       <c r="D18" s="5">
-        <v>1.4259999999999999</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
@@ -835,12 +835,12 @@
         <v>33</v>
       </c>
       <c r="D19" s="5">
-        <v>1.444</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
@@ -849,12 +849,12 @@
         <v>34</v>
       </c>
       <c r="D20" s="5">
-        <v>1.452</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -863,12 +863,12 @@
         <v>35</v>
       </c>
       <c r="D21" s="5">
-        <v>1.45</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
@@ -877,12 +877,12 @@
         <v>36</v>
       </c>
       <c r="D22" s="5">
-        <v>1.4370000000000001</v>
+        <v>0.16200000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
@@ -891,12 +891,12 @@
         <v>37</v>
       </c>
       <c r="D23" s="5">
-        <v>1.411</v>
+        <v>0.16300000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -905,12 +905,12 @@
         <v>38</v>
       </c>
       <c r="D24" s="5">
-        <v>1.3759999999999999</v>
+        <v>0.16400000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -919,12 +919,12 @@
         <v>39</v>
       </c>
       <c r="D25" s="5">
-        <v>1.3320000000000001</v>
+        <v>0.16400000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -933,12 +933,12 @@
         <v>40</v>
       </c>
       <c r="D26" s="5">
-        <v>1.2809999999999999</v>
+        <v>0.16300000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -947,12 +947,12 @@
         <v>41</v>
       </c>
       <c r="D27" s="5">
-        <v>1.224</v>
+        <v>0.16200000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B28" s="4">
         <v>1</v>
@@ -961,12 +961,12 @@
         <v>42</v>
       </c>
       <c r="D28" s="5">
-        <v>1.1619999999999999</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B29" s="4">
         <v>1</v>
@@ -975,12 +975,12 @@
         <v>43</v>
       </c>
       <c r="D29" s="5">
-        <v>1.095</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
@@ -989,12 +989,12 @@
         <v>44</v>
       </c>
       <c r="D30" s="5">
-        <v>1.0249999999999999</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B31" s="4">
         <v>1</v>
@@ -1003,12 +1003,12 @@
         <v>45</v>
       </c>
       <c r="D31" s="5">
-        <v>0.95199999999999996</v>
+        <v>0.14699999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B32" s="4">
         <v>1</v>
@@ -1017,12 +1017,12 @@
         <v>46</v>
       </c>
       <c r="D32" s="5">
-        <v>0.877</v>
+        <v>0.14099999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
@@ -1031,12 +1031,12 @@
         <v>47</v>
       </c>
       <c r="D33" s="5">
-        <v>0.80100000000000005</v>
+        <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B34" s="4">
         <v>1</v>
@@ -1045,12 +1045,12 @@
         <v>48</v>
       </c>
       <c r="D34" s="5">
-        <v>0.72499999999999998</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B35" s="4">
         <v>1</v>
@@ -1059,12 +1059,12 @@
         <v>49</v>
       </c>
       <c r="D35" s="5">
-        <v>0.64900000000000002</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B36" s="4">
         <v>1</v>
@@ -1073,12 +1073,12 @@
         <v>50</v>
       </c>
       <c r="D36" s="5">
-        <v>0.57499999999999996</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B37" s="4">
         <v>1</v>
@@ -1087,12 +1087,12 @@
         <v>51</v>
       </c>
       <c r="D37" s="5">
-        <v>0.504</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
@@ -1101,12 +1101,12 @@
         <v>52</v>
       </c>
       <c r="D38" s="5">
-        <v>0.438</v>
+        <v>9.7000000000000003E-2</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B39" s="4">
         <v>1</v>
@@ -1115,12 +1115,12 @@
         <v>53</v>
       </c>
       <c r="D39" s="5">
-        <v>0.376</v>
+        <v>8.8999999999999996E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B40" s="4">
         <v>1</v>
@@ -1129,12 +1129,12 @@
         <v>54</v>
       </c>
       <c r="D40" s="5">
-        <v>0.32100000000000001</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
@@ -1143,12 +1143,12 @@
         <v>55</v>
       </c>
       <c r="D41" s="5">
-        <v>0.27</v>
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B42" s="4">
         <v>1</v>
@@ -1157,12 +1157,12 @@
         <v>56</v>
       </c>
       <c r="D42" s="5">
-        <v>0.22500000000000001</v>
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B43" s="4">
         <v>1</v>
@@ -1171,12 +1171,12 @@
         <v>57</v>
       </c>
       <c r="D43" s="5">
-        <v>0.185</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B44" s="4">
         <v>1</v>
@@ -1185,12 +1185,12 @@
         <v>58</v>
       </c>
       <c r="D44" s="5">
-        <v>0.151</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B45" s="4">
         <v>1</v>
@@ -1199,12 +1199,12 @@
         <v>59</v>
       </c>
       <c r="D45" s="5">
-        <v>0.122</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B46" s="4">
         <v>1</v>
@@ -1213,12 +1213,12 @@
         <v>60</v>
       </c>
       <c r="D46" s="5">
-        <v>9.7000000000000003E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B47" s="4">
         <v>1</v>
@@ -1227,12 +1227,12 @@
         <v>61</v>
       </c>
       <c r="D47" s="5">
-        <v>7.6999999999999999E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B48" s="4">
         <v>1</v>
@@ -1241,12 +1241,12 @@
         <v>62</v>
       </c>
       <c r="D48" s="5">
-        <v>0.06</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B49" s="4">
         <v>1</v>
@@ -1255,12 +1255,12 @@
         <v>63</v>
       </c>
       <c r="D49" s="5">
-        <v>4.5999999999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B50" s="4">
         <v>1</v>
@@ -1269,12 +1269,12 @@
         <v>64</v>
       </c>
       <c r="D50" s="5">
-        <v>3.4000000000000002E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B51" s="4">
         <v>1</v>
@@ -1283,12 +1283,12 @@
         <v>65</v>
       </c>
       <c r="D51" s="5">
-        <v>2.5000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B52" s="4">
         <v>1</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B53" s="4">
         <v>1</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B54" s="4">
         <v>1</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B55" s="4">
         <v>1</v>
@@ -1339,12 +1339,12 @@
         <v>69</v>
       </c>
       <c r="D55" s="5">
-        <v>1.7000000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B56" s="4">
         <v>1</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B57" s="4">
         <v>1</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B58" s="4">
         <v>1</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B59" s="4">
         <v>1</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B60" s="4">
         <v>1</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B61" s="4">
         <v>1</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B62" s="4">
         <v>1</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B63" s="4">
         <v>1</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B64" s="4">
         <v>1</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="65" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B65" s="4">
         <v>1</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="66" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B66" s="4">
         <v>1</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="67" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B67" s="4">
         <v>1</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="68" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B68" s="4">
         <v>1</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="69" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B69" s="4">
         <v>1</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="70" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B70" s="4">
         <v>1</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="71" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B71" s="4">
         <v>1</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="72" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B72" s="4">
         <v>1</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="73" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B73" s="4">
         <v>1</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="74" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B74" s="4">
         <v>1</v>
@@ -1605,12 +1605,12 @@
         <v>88</v>
       </c>
       <c r="D74" s="5">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B75" s="4">
         <v>1</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="76" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B76" s="4">
         <v>1</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="77" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B77" s="4">
         <v>1</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="78" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B78" s="4">
         <v>1</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="79" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B79" s="4">
         <v>1</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="80" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B80" s="4">
         <v>1</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="81" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B81" s="4">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="82" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B82" s="4">
         <v>1</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="83" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B83" s="4">
         <v>1</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="84" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B84" s="4">
         <v>1</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="85" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B85" s="4">
         <v>1</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="86" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B86" s="4">
         <v>1</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="87" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B87" s="4">
         <v>1</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="88" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B88" s="4">
         <v>1</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="89" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B89" s="4">
         <v>1</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="90" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B90" s="4">
         <v>1</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="91" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B91" s="4">
         <v>1</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="92" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B92" s="4">
         <v>1</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="93" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B93" s="4">
         <v>1</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="94" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B94" s="4">
         <v>1</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="95" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B95" s="4">
         <v>1</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="96" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B96" s="4">
         <v>1</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="97" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B97" s="4">
         <v>1</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="98" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B98" s="4">
         <v>1</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="99" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B99" s="4">
         <v>1</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="100" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B100" s="4">
         <v>1</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="101" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B101" s="4">
         <v>1</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="102" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B102" s="4">
         <v>2</v>
@@ -1997,12 +1997,12 @@
         <v>17</v>
       </c>
       <c r="D102" s="5">
-        <v>0.71099999999999997</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B103" s="4">
         <v>2</v>
@@ -2011,12 +2011,12 @@
         <v>18</v>
       </c>
       <c r="D103" s="5">
-        <v>0.73199999999999998</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B104" s="4">
         <v>2</v>
@@ -2025,12 +2025,12 @@
         <v>19</v>
       </c>
       <c r="D104" s="5">
-        <v>0.754</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B105" s="4">
         <v>2</v>
@@ -2039,12 +2039,12 @@
         <v>20</v>
       </c>
       <c r="D105" s="5">
-        <v>0.77600000000000002</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B106" s="4">
         <v>2</v>
@@ -2053,12 +2053,12 @@
         <v>21</v>
       </c>
       <c r="D106" s="5">
-        <v>0.79900000000000004</v>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B107" s="4">
         <v>2</v>
@@ -2067,12 +2067,12 @@
         <v>22</v>
       </c>
       <c r="D107" s="5">
-        <v>0.82299999999999995</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B108" s="4">
         <v>2</v>
@@ -2081,12 +2081,12 @@
         <v>23</v>
       </c>
       <c r="D108" s="5">
-        <v>0.84699999999999998</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B109" s="4">
         <v>2</v>
@@ -2095,12 +2095,12 @@
         <v>24</v>
       </c>
       <c r="D109" s="5">
-        <v>0.871</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B110" s="4">
         <v>2</v>
@@ -2109,12 +2109,12 @@
         <v>25</v>
       </c>
       <c r="D110" s="5">
-        <v>0.89600000000000002</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B111" s="4">
         <v>2</v>
@@ -2123,12 +2123,12 @@
         <v>26</v>
       </c>
       <c r="D111" s="5">
-        <v>0.91900000000000004</v>
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B112" s="4">
         <v>2</v>
@@ -2137,12 +2137,12 @@
         <v>27</v>
       </c>
       <c r="D112" s="5">
-        <v>0.94199999999999995</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B113" s="4">
         <v>2</v>
@@ -2151,12 +2151,12 @@
         <v>28</v>
       </c>
       <c r="D113" s="5">
-        <v>0.96299999999999997</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B114" s="4">
         <v>2</v>
@@ -2165,12 +2165,12 @@
         <v>29</v>
       </c>
       <c r="D114" s="5">
-        <v>0.98099999999999998</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B115" s="4">
         <v>2</v>
@@ -2179,12 +2179,12 @@
         <v>30</v>
       </c>
       <c r="D115" s="5">
-        <v>0.99399999999999999</v>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B116" s="4">
         <v>2</v>
@@ -2193,12 +2193,12 @@
         <v>31</v>
       </c>
       <c r="D116" s="5">
-        <v>1.0029999999999999</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B117" s="4">
         <v>2</v>
@@ -2207,12 +2207,12 @@
         <v>32</v>
       </c>
       <c r="D117" s="5">
-        <v>1.006</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B118" s="4">
         <v>2</v>
@@ -2221,12 +2221,12 @@
         <v>33</v>
       </c>
       <c r="D118" s="5">
-        <v>1.002</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B119" s="4">
         <v>2</v>
@@ -2235,12 +2235,12 @@
         <v>34</v>
       </c>
       <c r="D119" s="5">
-        <v>0.99099999999999999</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B120" s="4">
         <v>2</v>
@@ -2249,12 +2249,12 @@
         <v>35</v>
       </c>
       <c r="D120" s="5">
-        <v>0.97</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B121" s="4">
         <v>2</v>
@@ -2263,12 +2263,12 @@
         <v>36</v>
       </c>
       <c r="D121" s="5">
-        <v>0.94099999999999995</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B122" s="4">
         <v>2</v>
@@ -2277,12 +2277,12 @@
         <v>37</v>
       </c>
       <c r="D122" s="5">
-        <v>0.90300000000000002</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B123" s="4">
         <v>2</v>
@@ -2291,12 +2291,12 @@
         <v>38</v>
       </c>
       <c r="D123" s="5">
-        <v>0.85799999999999998</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B124" s="4">
         <v>2</v>
@@ -2305,12 +2305,12 @@
         <v>39</v>
       </c>
       <c r="D124" s="5">
-        <v>0.80700000000000005</v>
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B125" s="4">
         <v>2</v>
@@ -2319,12 +2319,12 @@
         <v>40</v>
       </c>
       <c r="D125" s="5">
-        <v>0.751</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B126" s="4">
         <v>2</v>
@@ -2333,12 +2333,12 @@
         <v>41</v>
       </c>
       <c r="D126" s="5">
-        <v>0.69099999999999995</v>
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B127" s="4">
         <v>2</v>
@@ -2347,12 +2347,12 @@
         <v>42</v>
       </c>
       <c r="D127" s="5">
-        <v>0.63</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B128" s="4">
         <v>2</v>
@@ -2361,12 +2361,12 @@
         <v>43</v>
       </c>
       <c r="D128" s="5">
-        <v>0.56799999999999995</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B129" s="4">
         <v>2</v>
@@ -2375,12 +2375,12 @@
         <v>44</v>
       </c>
       <c r="D129" s="5">
-        <v>0.50600000000000001</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B130" s="4">
         <v>2</v>
@@ -2389,12 +2389,12 @@
         <v>45</v>
       </c>
       <c r="D130" s="5">
-        <v>0.44700000000000001</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B131" s="4">
         <v>2</v>
@@ -2403,12 +2403,12 @@
         <v>46</v>
       </c>
       <c r="D131" s="5">
-        <v>0.39100000000000001</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B132" s="4">
         <v>2</v>
@@ -2417,12 +2417,12 @@
         <v>47</v>
       </c>
       <c r="D132" s="5">
-        <v>0.33800000000000002</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B133" s="4">
         <v>2</v>
@@ -2431,12 +2431,12 @@
         <v>48</v>
       </c>
       <c r="D133" s="5">
-        <v>0.29099999999999998</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B134" s="4">
         <v>2</v>
@@ -2445,12 +2445,12 @@
         <v>49</v>
       </c>
       <c r="D134" s="5">
-        <v>0.247</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B135" s="4">
         <v>2</v>
@@ -2459,12 +2459,12 @@
         <v>50</v>
       </c>
       <c r="D135" s="5">
-        <v>0.20899999999999999</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B136" s="4">
         <v>2</v>
@@ -2473,12 +2473,12 @@
         <v>51</v>
       </c>
       <c r="D136" s="5">
-        <v>0.17499999999999999</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B137" s="4">
         <v>2</v>
@@ -2487,12 +2487,12 @@
         <v>52</v>
       </c>
       <c r="D137" s="5">
-        <v>0.14599999999999999</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B138" s="4">
         <v>2</v>
@@ -2501,12 +2501,12 @@
         <v>53</v>
       </c>
       <c r="D138" s="5">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B139" s="4">
         <v>2</v>
@@ -2515,12 +2515,12 @@
         <v>54</v>
       </c>
       <c r="D139" s="5">
-        <v>9.8000000000000004E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B140" s="4">
         <v>2</v>
@@ -2529,12 +2529,12 @@
         <v>55</v>
       </c>
       <c r="D140" s="5">
-        <v>7.8E-2</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B141" s="4">
         <v>2</v>
@@ -2543,12 +2543,12 @@
         <v>56</v>
       </c>
       <c r="D141" s="5">
-        <v>6.0999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B142" s="4">
         <v>2</v>
@@ -2557,12 +2557,12 @@
         <v>57</v>
       </c>
       <c r="D142" s="5">
-        <v>4.7E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B143" s="4">
         <v>2</v>
@@ -2571,12 +2571,12 @@
         <v>58</v>
       </c>
       <c r="D143" s="5">
-        <v>3.5000000000000003E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B144" s="4">
         <v>2</v>
@@ -2585,12 +2585,12 @@
         <v>59</v>
       </c>
       <c r="D144" s="5">
-        <v>2.4E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B145" s="4">
         <v>2</v>
@@ -2599,12 +2599,12 @@
         <v>60</v>
       </c>
       <c r="D145" s="5">
-        <v>1.6E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B146" s="4">
         <v>2</v>
@@ -2613,12 +2613,12 @@
         <v>61</v>
       </c>
       <c r="D146" s="5">
-        <v>1.0999999999999999E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B147" s="4">
         <v>2</v>
@@ -2627,12 +2627,12 @@
         <v>62</v>
       </c>
       <c r="D147" s="5">
-        <v>7.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B148" s="4">
         <v>2</v>
@@ -2641,12 +2641,12 @@
         <v>63</v>
       </c>
       <c r="D148" s="5">
-        <v>4.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B149" s="4">
         <v>2</v>
@@ -2655,12 +2655,12 @@
         <v>64</v>
       </c>
       <c r="D149" s="5">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B150" s="4">
         <v>2</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="151" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B151" s="4">
         <v>2</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="152" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B152" s="4">
         <v>2</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="153" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B153" s="4">
         <v>2</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="154" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B154" s="4">
         <v>2</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="155" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B155" s="4">
         <v>2</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="156" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B156" s="4">
         <v>2</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="157" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B157" s="4">
         <v>2</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="158" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B158" s="4">
         <v>2</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="159" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B159" s="4">
         <v>2</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="160" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B160" s="4">
         <v>2</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="161" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B161" s="4">
         <v>2</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="162" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B162" s="4">
         <v>2</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="163" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B163" s="4">
         <v>2</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="164" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B164" s="4">
         <v>2</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="165" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B165" s="4">
         <v>2</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="166" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B166" s="4">
         <v>2</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="167" spans="1:4" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B167" s="4">
         <v>2</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="168" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B168" s="4">
         <v>2</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="169" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B169" s="4">
         <v>2</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="170" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B170" s="4">
         <v>2</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="171" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B171" s="4">
         <v>2</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="172" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B172" s="4">
         <v>2</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="173" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B173" s="4">
         <v>2</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="174" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B174" s="4">
         <v>2</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="175" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B175" s="4">
         <v>2</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="176" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B176" s="4">
         <v>2</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="177" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B177" s="4">
         <v>2</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="178" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B178" s="4">
         <v>2</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="179" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B179" s="4">
         <v>2</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="180" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B180" s="4">
         <v>2</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="181" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B181" s="4">
         <v>2</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="182" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B182" s="4">
         <v>2</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="183" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B183" s="4">
         <v>2</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="184" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B184" s="4">
         <v>2</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="185" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B185" s="4">
         <v>2</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="186" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B186" s="4">
         <v>2</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="187" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B187" s="4">
         <v>2</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="188" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B188" s="4">
         <v>2</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="189" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B189" s="4">
         <v>2</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="190" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B190" s="4">
         <v>2</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="191" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B191" s="4">
         <v>2</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="192" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B192" s="4">
         <v>2</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="193" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B193" s="4">
         <v>2</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="194" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B194" s="4">
         <v>2</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="195" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B195" s="4">
         <v>2</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="196" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B196" s="4">
         <v>2</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="197" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B197" s="4">
         <v>2</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="198" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B198" s="4">
         <v>2</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="199" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B199" s="4">
         <v>2</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="200" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="B200" s="4">
         <v>2</v>
